--- a/ТРПО/Дз1/Новая таблица.xlsx
+++ b/ТРПО/Дз1/Новая таблица.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>Рабк</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>LOCхуж</t>
+  </si>
+  <si>
+    <t>Строк в месяц</t>
+  </si>
+  <si>
+    <t>начальные 0,1,0</t>
   </si>
 </sst>
 </file>
@@ -478,22 +484,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>152.47144059999999</c:v>
+                  <c:v>0.89598051063239703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147.94632540000001</c:v>
+                  <c:v>0.90883948141593529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143.55742960000001</c:v>
+                  <c:v>0.92188675961862543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139.3006043</c:v>
+                  <c:v>0.93512515427545395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135.17182819999999</c:v>
+                  <c:v>0.94855751701504887</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>131.1672035</c:v>
+                  <c:v>0.9621867427146229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,22 +536,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7623.5720309999997</c:v>
+                  <c:v>44.799025531619854</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7397.3162679999996</c:v>
+                  <c:v>45.441974070796768</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7177.8714790000004</c:v>
+                  <c:v>46.094337980931272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6965.0302160000001</c:v>
+                  <c:v>46.756257713772698</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6758.59141</c:v>
+                  <c:v>47.427875850752443</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6558.3601749999998</c:v>
+                  <c:v>48.109337135731145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3188,11 +3194,14 @@
   </sheetPr>
   <dimension ref="A2:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J2" s="1" t="s">
@@ -3239,7 +3248,8 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <f>E35</f>
+        <v>0.3</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ref="E6:E8" si="1">PRODUCT(C25:I25)</f>
@@ -3247,18 +3257,18 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" ref="F6:F8" si="2">B6*D6^C6*E6</f>
-        <v>25.316195250316749</v>
+        <v>0.43337024741713959</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" ref="H6:H8" si="3">F6*$J$3</f>
-        <v>1265.8097625158375</v>
+        <v>21.66851237085698</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ref="I6:I8" si="4">3*F6^(0.33+0.2*(C6-1.01))</f>
-        <v>9.6016239310814164</v>
+        <v>2.22019197136802</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -3273,7 +3283,8 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <f t="shared" ref="D7:D8" si="5">E36</f>
+        <v>0.2</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
@@ -3281,18 +3292,18 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="2"/>
-        <v>43.875164008181265</v>
+        <v>0.26437400663714261</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="3"/>
-        <v>2193.7582004090632</v>
+        <v>13.21870033185713</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>11.269322778622172</v>
+        <v>1.883205952499337</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -3307,7 +3318,8 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>27</v>
+        <f t="shared" si="5"/>
+        <v>0.2</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
@@ -3315,28 +3327,28 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="2"/>
-        <v>63.27073412470078</v>
+        <v>0.26015312846094768</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="3"/>
-        <v>3163.5367062350392</v>
+        <v>13.007656423047385</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="4"/>
-        <v>12.916494584967761</v>
+        <v>1.8675914684905921</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F9" s="2">
         <f>SUM(F6:F8)</f>
-        <v>132.46209338319881</v>
+        <v>0.95789738251522993</v>
       </c>
       <c r="H9" s="2">
         <f>SUM(H6:H8)</f>
-        <v>6623.1046691599404</v>
+        <v>47.894869125761495</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -3652,6 +3664,9 @@
       </c>
     </row>
     <row r="20" spans="2:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
       <c r="O20" s="4">
         <v>0</v>
       </c>
@@ -3850,10 +3865,11 @@
         <v>5</v>
       </c>
       <c r="P30" s="14">
-        <v>152.47144059999999</v>
+        <v>0.89598051063239703</v>
       </c>
       <c r="Q30" s="14">
-        <v>7623.5720309999997</v>
+        <f t="shared" ref="Q30:Q34" si="6">P30*$J$3</f>
+        <v>44.799025531619854</v>
       </c>
     </row>
     <row r="31" spans="2:26" ht="15" x14ac:dyDescent="0.2">
@@ -3861,10 +3877,11 @@
         <v>4</v>
       </c>
       <c r="P31" s="14">
-        <v>147.94632540000001</v>
+        <v>0.90883948141593529</v>
       </c>
       <c r="Q31" s="14">
-        <v>7397.3162679999996</v>
+        <f t="shared" si="6"/>
+        <v>45.441974070796768</v>
       </c>
     </row>
     <row r="32" spans="2:26" ht="15" x14ac:dyDescent="0.2">
@@ -3872,10 +3889,11 @@
         <v>3</v>
       </c>
       <c r="P32" s="14">
-        <v>143.55742960000001</v>
+        <v>0.92188675961862543</v>
       </c>
       <c r="Q32" s="14">
-        <v>7177.8714790000004</v>
+        <f t="shared" si="6"/>
+        <v>46.094337980931272</v>
       </c>
     </row>
     <row r="33" spans="2:17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3883,10 +3901,11 @@
         <v>2</v>
       </c>
       <c r="P33" s="14">
-        <v>139.3006043</v>
+        <v>0.93512515427545395</v>
       </c>
       <c r="Q33" s="14">
-        <v>6965.0302160000001</v>
+        <f t="shared" si="6"/>
+        <v>46.756257713772698</v>
       </c>
     </row>
     <row r="34" spans="2:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -3924,118 +3943,126 @@
         <v>1</v>
       </c>
       <c r="P34" s="14">
-        <v>135.17182819999999</v>
+        <v>0.94855751701504887</v>
       </c>
       <c r="Q34" s="14">
-        <v>6758.59141</v>
+        <f t="shared" si="6"/>
+        <v>47.427875850752443</v>
       </c>
     </row>
     <row r="35" spans="2:17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
       <c r="C35" s="19">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="D35" s="19">
-        <v>170</v>
+        <f>F35/$D$40*50</f>
+        <v>5.3571428571428568</v>
       </c>
       <c r="E35" s="19">
-        <v>10</v>
+        <f>F35/1000</f>
+        <v>0.3</v>
       </c>
       <c r="F35" s="19">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="H35">
         <f>E35/C35</f>
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="I35">
         <f>D35/E35</f>
-        <v>17</v>
+        <v>17.857142857142858</v>
       </c>
       <c r="J35">
-        <f>(4*E35+K35+L35)/6</f>
-        <v>10.333333333333334</v>
+        <f>(4*F35+K35+L35)/6</f>
+        <v>308.33333333333331</v>
       </c>
       <c r="K35">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>400</v>
       </c>
       <c r="O35" s="13">
         <v>0</v>
       </c>
       <c r="P35" s="14">
-        <v>131.1672035</v>
+        <v>0.9621867427146229</v>
       </c>
       <c r="Q35" s="14">
-        <v>6558.3601749999998</v>
+        <f>P35*$J$3</f>
+        <v>48.109337135731145</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="C36" s="19">
-        <v>40</v>
+        <v>0.25</v>
       </c>
       <c r="D36" s="19">
-        <v>310</v>
+        <f t="shared" ref="D36:D37" si="7">F36/$D$40*50</f>
+        <v>3.5714285714285712</v>
       </c>
       <c r="E36" s="19">
-        <v>20</v>
+        <f t="shared" ref="E36:E37" si="8">F36/1000</f>
+        <v>0.2</v>
       </c>
       <c r="F36" s="19">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H37" si="5">E36/C36</f>
-        <v>0.5</v>
+        <f t="shared" ref="H36:H37" si="9">E36/C36</f>
+        <v>0.8</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:I37" si="6">D36/E36</f>
-        <v>15.5</v>
+        <f t="shared" ref="I36:I37" si="10">D36/E36</f>
+        <v>17.857142857142854</v>
       </c>
       <c r="J36">
-        <f>(4*E36+K36+L36)/6</f>
-        <v>19.666666666666668</v>
+        <f>(4*F36+K36+L36)/6</f>
+        <v>208.33333333333334</v>
       </c>
       <c r="K36">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18"/>
       <c r="C37" s="19">
-        <v>62</v>
+        <v>0.25</v>
       </c>
       <c r="D37" s="19">
-        <v>440</v>
+        <f t="shared" si="7"/>
+        <v>3.5714285714285712</v>
       </c>
       <c r="E37" s="19">
-        <v>27</v>
+        <f t="shared" si="8"/>
+        <v>0.2</v>
       </c>
       <c r="F37" s="19">
-        <v>27000</v>
+        <v>200</v>
       </c>
       <c r="H37">
-        <f t="shared" si="5"/>
-        <v>0.43548387096774194</v>
+        <f t="shared" si="9"/>
+        <v>0.8</v>
       </c>
       <c r="I37">
-        <f t="shared" si="6"/>
-        <v>16.296296296296298</v>
+        <f t="shared" si="10"/>
+        <v>17.857142857142854</v>
       </c>
       <c r="J37">
-        <f>(4*E37+K37+L37)/6</f>
-        <v>27</v>
+        <f>(4*F37+K37+L37)/6</f>
+        <v>200</v>
       </c>
       <c r="K37">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4044,14 +4071,17 @@
       </c>
       <c r="H38">
         <f>SUM(H35:H37)/3</f>
-        <v>0.44516129032258062</v>
+        <v>0.93333333333333324</v>
       </c>
       <c r="I38">
         <f>SUM(I35:I37)/3</f>
-        <v>16.265432098765434</v>
+        <v>17.857142857142854</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="15" t="s">
         <v>26</v>
       </c>
@@ -4060,10 +4090,13 @@
       </c>
       <c r="J39">
         <f>SUM(J35:J37)</f>
-        <v>57</v>
+        <v>716.66666666666663</v>
       </c>
     </row>
     <row r="40" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>2800</v>
+      </c>
       <c r="E40" s="15" t="s">
         <v>26</v>
       </c>
@@ -4093,7 +4126,7 @@
       </c>
       <c r="C43">
         <f>J39/H38</f>
-        <v>128.04347826086956</v>
+        <v>767.85714285714289</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>29</v>
@@ -4108,7 +4141,7 @@
       </c>
       <c r="C44">
         <f>J39*I38</f>
-        <v>927.12962962962968</v>
+        <v>12797.619047619044</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>30</v>
